--- a/with logs for unschedule with saturday sunday/excel_schedules/room_171_genetic_schedule.xlsx
+++ b/with logs for unschedule with saturday sunday/excel_schedules/room_171_genetic_schedule.xlsx
@@ -658,14 +658,7 @@
           <t>6:00 PM - 6:30 PM</t>
         </is>
       </c>
-    </row>
-    <row r="23" ht="50" customHeight="1">
-      <c r="A23" s="2" t="inlineStr">
-        <is>
-          <t>6:30 PM - 7:00 PM</t>
-        </is>
-      </c>
-      <c r="B23" s="2" t="inlineStr">
+      <c r="B22" s="2" t="inlineStr">
         <is>
           <t>MU 208 - Music
 2E
@@ -673,13 +666,20 @@
         </is>
       </c>
     </row>
+    <row r="23" ht="50" customHeight="1">
+      <c r="A23" s="2" t="inlineStr">
+        <is>
+          <t>6:30 PM - 7:00 PM</t>
+        </is>
+      </c>
+      <c r="B23" s="2" t="n"/>
+    </row>
     <row r="24" ht="50" customHeight="1">
       <c r="A24" s="2" t="inlineStr">
         <is>
           <t>7:00 PM - 7:30 PM</t>
         </is>
       </c>
-      <c r="B24" s="2" t="n"/>
     </row>
     <row r="25" ht="50" customHeight="1">
       <c r="A25" s="2" t="inlineStr">
@@ -704,7 +704,7 @@
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="B22:B23"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
